--- a/planilha/marco/Escala ASO1 - Santa Inês - 1° Turno - Março.xlsx
+++ b/planilha/marco/Escala ASO1 - Santa Inês - 1° Turno - Março.xlsx
@@ -73,7 +73,7 @@
     <t>Icaro Roosewelt</t>
   </si>
   <si>
-    <t>4</t>
+    <t>1</t>
   </si>
   <si>
     <t>F</t>
@@ -100,13 +100,13 @@
     <t>Andre Silveira</t>
   </si>
   <si>
-    <t>Marco Alves</t>
+    <t>Pedro Rodrigues</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>28/02/20</t>
+    <t>03/03/20</t>
   </si>
 </sst>
 </file>
@@ -799,11 +799,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
@@ -811,8 +811,8 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -820,53 +820,53 @@
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>13</v>
+      <c r="U4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>13</v>
@@ -874,8 +874,8 @@
       <c r="AB4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>19</v>
+      <c r="AC4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>19</v>
@@ -883,8 +883,8 @@
       <c r="AE4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>8</v>
+      <c r="AF4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>13</v>
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>19</v>
@@ -978,28 +978,28 @@
         <v>19</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>19</v>
@@ -1023,16 +1023,16 @@
         <v>19</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
@@ -1120,22 +1120,22 @@
         <v>19</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>13</v>
@@ -1165,10 +1165,10 @@
         <v>19</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>13</v>
@@ -1232,34 +1232,34 @@
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s"/>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s"/>
+      <c r="D7" s="5" t="s"/>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="5" t="s"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5" t="s"/>
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="5" t="s"/>
-      <c r="N7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="5" t="s"/>
+      <c r="N7" s="5" t="s"/>
+      <c r="O7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1269,38 +1269,38 @@
       <c r="R7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="S7" s="5" t="s"/>
       <c r="T7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="5" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="V7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W7" s="5" t="s"/>
       <c r="X7" s="5" t="s"/>
-      <c r="Y7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="5" t="s"/>
+      <c r="Y7" s="5" t="s"/>
+      <c r="Z7" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="AA7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC7" s="5" t="s"/>
       <c r="AD7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF7" s="5" t="s"/>
+        <v>7</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="AG7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="s"/>
       <c r="J8" s="3" t="s"/>
@@ -1379,10 +1379,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O8" s="3" t="s"/>
       <c r="P8" s="4" t="s">
@@ -1395,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T8" s="3" t="s"/>
       <c r="U8" s="3" t="s"/>
@@ -1403,10 +1403,10 @@
         <v>19</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>13</v>
@@ -1419,7 +1419,7 @@
         <v>19</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD8" s="3" t="s"/>
       <c r="AE8" s="3" t="s"/>
@@ -1499,7 +1499,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>8</v>
@@ -1523,13 +1523,13 @@
         <v>19</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="5" t="s"/>
       <c r="Z9" s="4" t="s">
@@ -1548,7 +1548,7 @@
         <v>19</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH9" s="5" t="n"/>
       <c r="AI9" s="5" t="n"/>
